--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.74268466666667</v>
+        <v>60.84105066666667</v>
       </c>
       <c r="H2">
-        <v>152.228054</v>
+        <v>182.523152</v>
       </c>
       <c r="I2">
-        <v>0.939595280901226</v>
+        <v>0.9509145817383112</v>
       </c>
       <c r="J2">
-        <v>0.9395952809012262</v>
+        <v>0.9509145817383113</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.453014</v>
+        <v>0.525073</v>
       </c>
       <c r="N2">
-        <v>1.359042</v>
+        <v>1.575219</v>
       </c>
       <c r="O2">
-        <v>0.04524798776697361</v>
+        <v>0.04561228014173226</v>
       </c>
       <c r="P2">
-        <v>0.04524798776697361</v>
+        <v>0.04561228014173226</v>
       </c>
       <c r="Q2">
-        <v>22.98714655158534</v>
+        <v>31.94599299669867</v>
       </c>
       <c r="R2">
-        <v>206.884318964268</v>
+        <v>287.5139369702881</v>
       </c>
       <c r="S2">
-        <v>0.04251479577612481</v>
+        <v>0.04337338229310601</v>
       </c>
       <c r="T2">
-        <v>0.04251479577612481</v>
+        <v>0.04337338229310601</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.74268466666667</v>
+        <v>60.84105066666667</v>
       </c>
       <c r="H3">
-        <v>152.228054</v>
+        <v>182.523152</v>
       </c>
       <c r="I3">
-        <v>0.939595280901226</v>
+        <v>0.9509145817383112</v>
       </c>
       <c r="J3">
-        <v>0.9395952809012262</v>
+        <v>0.9509145817383113</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>16.980135</v>
       </c>
       <c r="O3">
-        <v>0.5653371571750987</v>
+        <v>0.4916793629739312</v>
       </c>
       <c r="P3">
-        <v>0.5653371571750986</v>
+        <v>0.4916793629739311</v>
       </c>
       <c r="Q3">
-        <v>287.2058786341433</v>
+        <v>344.3630846206133</v>
       </c>
       <c r="R3">
-        <v>2584.85290770729</v>
+        <v>3099.26776158552</v>
       </c>
       <c r="S3">
-        <v>0.5311881249998374</v>
+        <v>0.4675450757917151</v>
       </c>
       <c r="T3">
-        <v>0.5311881249998375</v>
+        <v>0.4675450757917151</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.74268466666667</v>
+        <v>60.84105066666667</v>
       </c>
       <c r="H4">
-        <v>152.228054</v>
+        <v>182.523152</v>
       </c>
       <c r="I4">
-        <v>0.939595280901226</v>
+        <v>0.9509145817383112</v>
       </c>
       <c r="J4">
-        <v>0.9395952809012262</v>
+        <v>0.9509145817383113</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6888489999999999</v>
+        <v>1.342789333333333</v>
       </c>
       <c r="N4">
-        <v>2.066547</v>
+        <v>4.028368</v>
       </c>
       <c r="O4">
-        <v>0.06880368184049941</v>
+        <v>0.1166460344434582</v>
       </c>
       <c r="P4">
-        <v>0.06880368184049941</v>
+        <v>0.1166460344434581</v>
       </c>
       <c r="Q4">
-        <v>34.95404758994867</v>
+        <v>81.6967138639929</v>
       </c>
       <c r="R4">
-        <v>314.586428309538</v>
+        <v>735.2704247759361</v>
       </c>
       <c r="S4">
-        <v>0.06464761476596263</v>
+        <v>0.1109204150542337</v>
       </c>
       <c r="T4">
-        <v>0.06464761476596265</v>
+        <v>0.1109204150542337</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.74268466666667</v>
+        <v>60.84105066666667</v>
       </c>
       <c r="H5">
-        <v>152.228054</v>
+        <v>182.523152</v>
       </c>
       <c r="I5">
-        <v>0.939595280901226</v>
+        <v>0.9509145817383112</v>
       </c>
       <c r="J5">
-        <v>0.9395952809012262</v>
+        <v>0.9509145817383113</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.330650666666667</v>
+        <v>2.987003</v>
       </c>
       <c r="N5">
-        <v>6.991952</v>
+        <v>8.961009000000001</v>
       </c>
       <c r="O5">
-        <v>0.2327902732684249</v>
+        <v>0.2594763349480828</v>
       </c>
       <c r="P5">
-        <v>0.2327902732684248</v>
+        <v>0.2594763349480828</v>
       </c>
       <c r="Q5">
-        <v>118.2634718468231</v>
+        <v>181.7324008644853</v>
       </c>
       <c r="R5">
-        <v>1064.371246621408</v>
+        <v>1635.591607780368</v>
       </c>
       <c r="S5">
-        <v>0.2187286422027188</v>
+        <v>0.2467398305181461</v>
       </c>
       <c r="T5">
-        <v>0.2187286422027188</v>
+        <v>0.2467398305181461</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.74268466666667</v>
+        <v>60.84105066666667</v>
       </c>
       <c r="H6">
-        <v>152.228054</v>
+        <v>182.523152</v>
       </c>
       <c r="I6">
-        <v>0.939595280901226</v>
+        <v>0.9509145817383112</v>
       </c>
       <c r="J6">
-        <v>0.9395952809012262</v>
+        <v>0.9509145817383113</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8792456666666667</v>
+        <v>0.9967483333333332</v>
       </c>
       <c r="N6">
-        <v>2.637737</v>
+        <v>2.990245</v>
       </c>
       <c r="O6">
-        <v>0.08782089994900355</v>
+        <v>0.08658598749279571</v>
       </c>
       <c r="P6">
-        <v>0.08782089994900352</v>
+        <v>0.08658598749279571</v>
       </c>
       <c r="Q6">
-        <v>44.61528560819978</v>
+        <v>60.64321585024889</v>
       </c>
       <c r="R6">
-        <v>401.537570473798</v>
+        <v>545.7889426522401</v>
       </c>
       <c r="S6">
-        <v>0.08251610315658246</v>
+        <v>0.08233587808111048</v>
       </c>
       <c r="T6">
-        <v>0.08251610315658245</v>
+        <v>0.08233587808111049</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>6.272689</v>
       </c>
       <c r="I7">
-        <v>0.03871683850705357</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="J7">
-        <v>0.03871683850705358</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.453014</v>
+        <v>0.525073</v>
       </c>
       <c r="N7">
-        <v>1.359042</v>
+        <v>1.575219</v>
       </c>
       <c r="O7">
-        <v>0.04524798776697361</v>
+        <v>0.04561228014173226</v>
       </c>
       <c r="P7">
-        <v>0.04524798776697361</v>
+        <v>0.04561228014173226</v>
       </c>
       <c r="Q7">
-        <v>0.9472053115486667</v>
+        <v>1.097873210432333</v>
       </c>
       <c r="R7">
-        <v>8.524847803938</v>
+        <v>9.880858893891</v>
       </c>
       <c r="S7">
-        <v>0.001751859035143053</v>
+        <v>0.001490593029002484</v>
       </c>
       <c r="T7">
-        <v>0.001751859035143053</v>
+        <v>0.001490593029002484</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>6.272689</v>
       </c>
       <c r="I8">
-        <v>0.03871683850705357</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="J8">
-        <v>0.03871683850705358</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>16.980135</v>
       </c>
       <c r="O8">
-        <v>0.5653371571750987</v>
+        <v>0.4916793629739312</v>
       </c>
       <c r="P8">
-        <v>0.5653371571750986</v>
+        <v>0.4916793629739311</v>
       </c>
       <c r="Q8">
         <v>11.83456733700167</v>
@@ -948,10 +948,10 @@
         <v>106.511106033015</v>
       </c>
       <c r="S8">
-        <v>0.02188806741638506</v>
+        <v>0.01606790602609611</v>
       </c>
       <c r="T8">
-        <v>0.02188806741638506</v>
+        <v>0.01606790602609611</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>6.272689</v>
       </c>
       <c r="I9">
-        <v>0.03871683850705357</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="J9">
-        <v>0.03871683850705358</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6888489999999999</v>
+        <v>1.342789333333333</v>
       </c>
       <c r="N9">
-        <v>2.066547</v>
+        <v>4.028368</v>
       </c>
       <c r="O9">
-        <v>0.06880368184049941</v>
+        <v>0.1166460344434582</v>
       </c>
       <c r="P9">
-        <v>0.06880368184049941</v>
+        <v>0.1166460344434581</v>
       </c>
       <c r="Q9">
-        <v>1.440311848320333</v>
+        <v>2.807633293505778</v>
       </c>
       <c r="R9">
-        <v>12.962806634883</v>
+        <v>25.268699641552</v>
       </c>
       <c r="S9">
-        <v>0.00266386103850931</v>
+        <v>0.003811950756724417</v>
       </c>
       <c r="T9">
-        <v>0.00266386103850931</v>
+        <v>0.003811950756724417</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>6.272689</v>
       </c>
       <c r="I10">
-        <v>0.03871683850705357</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="J10">
-        <v>0.03871683850705358</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.330650666666667</v>
+        <v>2.987003</v>
       </c>
       <c r="N10">
-        <v>6.991952</v>
+        <v>8.961009000000001</v>
       </c>
       <c r="O10">
-        <v>0.2327902732684249</v>
+        <v>0.2594763349480828</v>
       </c>
       <c r="P10">
-        <v>0.2327902732684248</v>
+        <v>0.2594763349480828</v>
       </c>
       <c r="Q10">
-        <v>4.873148933214222</v>
+        <v>6.245513620355666</v>
       </c>
       <c r="R10">
-        <v>43.858340398928</v>
+        <v>56.209622583201</v>
       </c>
       <c r="S10">
-        <v>0.009012903416146474</v>
+        <v>0.00847959397914101</v>
       </c>
       <c r="T10">
-        <v>0.009012903416146476</v>
+        <v>0.00847959397914101</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>6.272689</v>
       </c>
       <c r="I11">
-        <v>0.03871683850705357</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="J11">
-        <v>0.03871683850705358</v>
+        <v>0.0326796429463891</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8792456666666667</v>
+        <v>0.9967483333333332</v>
       </c>
       <c r="N11">
-        <v>2.637737</v>
+        <v>2.990245</v>
       </c>
       <c r="O11">
-        <v>0.08782089994900355</v>
+        <v>0.08658598749279571</v>
       </c>
       <c r="P11">
-        <v>0.08782089994900352</v>
+        <v>0.08658598749279571</v>
       </c>
       <c r="Q11">
-        <v>1.838411540532556</v>
+        <v>2.084097435422778</v>
       </c>
       <c r="R11">
-        <v>16.545703864793</v>
+        <v>18.756876918805</v>
       </c>
       <c r="S11">
-        <v>0.00340014760086968</v>
+        <v>0.002829599155425076</v>
       </c>
       <c r="T11">
-        <v>0.003400147600869679</v>
+        <v>0.002829599155425076</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.06669499999999999</v>
+        <v>0.316267</v>
       </c>
       <c r="H12">
-        <v>0.200085</v>
+        <v>0.948801</v>
       </c>
       <c r="I12">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="J12">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.453014</v>
+        <v>0.525073</v>
       </c>
       <c r="N12">
-        <v>1.359042</v>
+        <v>1.575219</v>
       </c>
       <c r="O12">
-        <v>0.04524798776697361</v>
+        <v>0.04561228014173226</v>
       </c>
       <c r="P12">
-        <v>0.04524798776697361</v>
+        <v>0.04561228014173226</v>
       </c>
       <c r="Q12">
-        <v>0.03021376873</v>
+        <v>0.166063262491</v>
       </c>
       <c r="R12">
-        <v>0.27192391857</v>
+        <v>1.494569362419</v>
       </c>
       <c r="S12">
-        <v>5.588045494469719E-05</v>
+        <v>0.0002254656904735093</v>
       </c>
       <c r="T12">
-        <v>5.58804549446972E-05</v>
+        <v>0.0002254656904735092</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.06669499999999999</v>
+        <v>0.316267</v>
       </c>
       <c r="H13">
-        <v>0.200085</v>
+        <v>0.948801</v>
       </c>
       <c r="I13">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="J13">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>16.980135</v>
       </c>
       <c r="O13">
-        <v>0.5653371571750987</v>
+        <v>0.4916793629739312</v>
       </c>
       <c r="P13">
-        <v>0.5653371571750986</v>
+        <v>0.4916793629739311</v>
       </c>
       <c r="Q13">
-        <v>0.377496701275</v>
+        <v>1.790085452015</v>
       </c>
       <c r="R13">
-        <v>3.397470311475</v>
+        <v>16.110769068135</v>
       </c>
       <c r="S13">
-        <v>0.0006981812694695056</v>
+        <v>0.002430416254570571</v>
       </c>
       <c r="T13">
-        <v>0.0006981812694695057</v>
+        <v>0.002430416254570571</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.06669499999999999</v>
+        <v>0.316267</v>
       </c>
       <c r="H14">
-        <v>0.200085</v>
+        <v>0.948801</v>
       </c>
       <c r="I14">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="J14">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6888489999999999</v>
+        <v>1.342789333333333</v>
       </c>
       <c r="N14">
-        <v>2.066547</v>
+        <v>4.028368</v>
       </c>
       <c r="O14">
-        <v>0.06880368184049941</v>
+        <v>0.1166460344434582</v>
       </c>
       <c r="P14">
-        <v>0.06880368184049941</v>
+        <v>0.1166460344434581</v>
       </c>
       <c r="Q14">
-        <v>0.04594278405499999</v>
+        <v>0.4246799540853334</v>
       </c>
       <c r="R14">
-        <v>0.4134850564949999</v>
+        <v>3.822119586768</v>
       </c>
       <c r="S14">
-        <v>8.497131547413481E-05</v>
+        <v>0.0005765920628188141</v>
       </c>
       <c r="T14">
-        <v>8.497131547413484E-05</v>
+        <v>0.000576592062818814</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.06669499999999999</v>
+        <v>0.316267</v>
       </c>
       <c r="H15">
-        <v>0.200085</v>
+        <v>0.948801</v>
       </c>
       <c r="I15">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="J15">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.330650666666667</v>
+        <v>2.987003</v>
       </c>
       <c r="N15">
-        <v>6.991952</v>
+        <v>8.961009000000001</v>
       </c>
       <c r="O15">
-        <v>0.2327902732684249</v>
+        <v>0.2594763349480828</v>
       </c>
       <c r="P15">
-        <v>0.2327902732684248</v>
+        <v>0.2594763349480828</v>
       </c>
       <c r="Q15">
-        <v>0.1554427462133333</v>
+        <v>0.9446904778010001</v>
       </c>
       <c r="R15">
-        <v>1.39898471592</v>
+        <v>8.502214300209001</v>
       </c>
       <c r="S15">
-        <v>0.0002874918204967068</v>
+        <v>0.001282615357943455</v>
       </c>
       <c r="T15">
-        <v>0.0002874918204967068</v>
+        <v>0.001282615357943455</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.06669499999999999</v>
+        <v>0.316267</v>
       </c>
       <c r="H16">
-        <v>0.200085</v>
+        <v>0.948801</v>
       </c>
       <c r="I16">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="J16">
-        <v>0.001234982099811391</v>
+        <v>0.004943091855371265</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8792456666666667</v>
+        <v>0.9967483333333332</v>
       </c>
       <c r="N16">
-        <v>2.637737</v>
+        <v>2.990245</v>
       </c>
       <c r="O16">
-        <v>0.08782089994900355</v>
+        <v>0.08658598749279571</v>
       </c>
       <c r="P16">
-        <v>0.08782089994900352</v>
+        <v>0.08658598749279571</v>
       </c>
       <c r="Q16">
-        <v>0.05864128973833332</v>
+        <v>0.3152386051383333</v>
       </c>
       <c r="R16">
-        <v>0.527771607645</v>
+        <v>2.837147446245</v>
       </c>
       <c r="S16">
-        <v>0.0001084572394263464</v>
+        <v>0.0004280024895649167</v>
       </c>
       <c r="T16">
-        <v>0.0001084572394263465</v>
+        <v>0.0004280024895649167</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9798133333333334</v>
+        <v>0.573554</v>
       </c>
       <c r="H17">
-        <v>2.93944</v>
+        <v>1.720662</v>
       </c>
       <c r="I17">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="J17">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.453014</v>
+        <v>0.525073</v>
       </c>
       <c r="N17">
-        <v>1.359042</v>
+        <v>1.575219</v>
       </c>
       <c r="O17">
-        <v>0.04524798776697361</v>
+        <v>0.04561228014173226</v>
       </c>
       <c r="P17">
-        <v>0.04524798776697361</v>
+        <v>0.04561228014173226</v>
       </c>
       <c r="Q17">
-        <v>0.4438691573866667</v>
+        <v>0.301157719442</v>
       </c>
       <c r="R17">
-        <v>3.994822416480001</v>
+        <v>2.710419474978</v>
       </c>
       <c r="S17">
-        <v>0.0008209373240504823</v>
+        <v>0.0004088847354730121</v>
       </c>
       <c r="T17">
-        <v>0.0008209373240504823</v>
+        <v>0.0004088847354730121</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9798133333333334</v>
+        <v>0.573554</v>
       </c>
       <c r="H18">
-        <v>2.93944</v>
+        <v>1.720662</v>
       </c>
       <c r="I18">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="J18">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>16.980135</v>
       </c>
       <c r="O18">
-        <v>0.5653371571750987</v>
+        <v>0.4916793629739312</v>
       </c>
       <c r="P18">
-        <v>0.5653371571750986</v>
+        <v>0.4916793629739311</v>
       </c>
       <c r="Q18">
-        <v>5.545787558266667</v>
+        <v>3.24634144993</v>
       </c>
       <c r="R18">
-        <v>49.91208802440001</v>
+        <v>29.21707304937</v>
       </c>
       <c r="S18">
-        <v>0.01025695054966361</v>
+        <v>0.004407589044933456</v>
       </c>
       <c r="T18">
-        <v>0.01025695054966361</v>
+        <v>0.004407589044933455</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9798133333333334</v>
+        <v>0.573554</v>
       </c>
       <c r="H19">
-        <v>2.93944</v>
+        <v>1.720662</v>
       </c>
       <c r="I19">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="J19">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6888489999999999</v>
+        <v>1.342789333333333</v>
       </c>
       <c r="N19">
-        <v>2.066547</v>
+        <v>4.028368</v>
       </c>
       <c r="O19">
-        <v>0.06880368184049941</v>
+        <v>0.1166460344434582</v>
       </c>
       <c r="P19">
-        <v>0.06880368184049941</v>
+        <v>0.1166460344434581</v>
       </c>
       <c r="Q19">
-        <v>0.6749434348533333</v>
+        <v>0.7701621932906667</v>
       </c>
       <c r="R19">
-        <v>6.07449091368</v>
+        <v>6.931459739616001</v>
       </c>
       <c r="S19">
-        <v>0.001248309886084868</v>
+        <v>0.001045656625566316</v>
       </c>
       <c r="T19">
-        <v>0.001248309886084869</v>
+        <v>0.001045656625566316</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9798133333333334</v>
+        <v>0.573554</v>
       </c>
       <c r="H20">
-        <v>2.93944</v>
+        <v>1.720662</v>
       </c>
       <c r="I20">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="J20">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.330650666666667</v>
+        <v>2.987003</v>
       </c>
       <c r="N20">
-        <v>6.991952</v>
+        <v>8.961009000000001</v>
       </c>
       <c r="O20">
-        <v>0.2327902732684249</v>
+        <v>0.2594763349480828</v>
       </c>
       <c r="P20">
-        <v>0.2327902732684248</v>
+        <v>0.2594763349480828</v>
       </c>
       <c r="Q20">
-        <v>2.283602598542223</v>
+        <v>1.713207518662</v>
       </c>
       <c r="R20">
-        <v>20.55242338688</v>
+        <v>15.418867667958</v>
       </c>
       <c r="S20">
-        <v>0.00422352978404598</v>
+        <v>0.002326038344215173</v>
       </c>
       <c r="T20">
-        <v>0.004223529784045981</v>
+        <v>0.002326038344215173</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9798133333333334</v>
+        <v>0.573554</v>
       </c>
       <c r="H21">
-        <v>2.93944</v>
+        <v>1.720662</v>
       </c>
       <c r="I21">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="J21">
-        <v>0.01814306811339978</v>
+        <v>0.008964356401444383</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.8792456666666667</v>
+        <v>0.9967483333333332</v>
       </c>
       <c r="N21">
-        <v>2.637737</v>
+        <v>2.990245</v>
       </c>
       <c r="O21">
-        <v>0.08782089994900355</v>
+        <v>0.08658598749279571</v>
       </c>
       <c r="P21">
-        <v>0.08782089994900352</v>
+        <v>0.08658598749279571</v>
       </c>
       <c r="Q21">
-        <v>0.8614966274755557</v>
+        <v>0.5716889935766666</v>
       </c>
       <c r="R21">
-        <v>7.753469647280001</v>
+        <v>5.14520094219</v>
       </c>
       <c r="S21">
-        <v>0.001593340569554839</v>
+        <v>0.0007761876512564265</v>
       </c>
       <c r="T21">
-        <v>0.001593340569554839</v>
+        <v>0.0007761876512564265</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.124742</v>
+        <v>0.159847</v>
       </c>
       <c r="H22">
-        <v>0.374226</v>
+        <v>0.479541</v>
       </c>
       <c r="I22">
-        <v>0.002309830378509221</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="J22">
-        <v>0.002309830378509222</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.453014</v>
+        <v>0.525073</v>
       </c>
       <c r="N22">
-        <v>1.359042</v>
+        <v>1.575219</v>
       </c>
       <c r="O22">
-        <v>0.04524798776697361</v>
+        <v>0.04561228014173226</v>
       </c>
       <c r="P22">
-        <v>0.04524798776697361</v>
+        <v>0.04561228014173226</v>
       </c>
       <c r="Q22">
-        <v>0.056509872388</v>
+        <v>0.083931343831</v>
       </c>
       <c r="R22">
-        <v>0.5085888514920001</v>
+        <v>0.7553820944790001</v>
       </c>
       <c r="S22">
-        <v>0.0001045151767105693</v>
+        <v>0.000113954393677238</v>
       </c>
       <c r="T22">
-        <v>0.0001045151767105693</v>
+        <v>0.000113954393677238</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.124742</v>
+        <v>0.159847</v>
       </c>
       <c r="H23">
-        <v>0.374226</v>
+        <v>0.479541</v>
       </c>
       <c r="I23">
-        <v>0.002309830378509221</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="J23">
-        <v>0.002309830378509222</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>16.980135</v>
       </c>
       <c r="O23">
-        <v>0.5653371571750987</v>
+        <v>0.4916793629739312</v>
       </c>
       <c r="P23">
-        <v>0.5653371571750986</v>
+        <v>0.4916793629739311</v>
       </c>
       <c r="Q23">
-        <v>0.7060453333900001</v>
+        <v>0.904741213115</v>
       </c>
       <c r="R23">
-        <v>6.35440800051</v>
+        <v>8.142670918035</v>
       </c>
       <c r="S23">
-        <v>0.001305832939743085</v>
+        <v>0.001228375856615904</v>
       </c>
       <c r="T23">
-        <v>0.001305832939743085</v>
+        <v>0.001228375856615904</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.124742</v>
+        <v>0.159847</v>
       </c>
       <c r="H24">
-        <v>0.374226</v>
+        <v>0.479541</v>
       </c>
       <c r="I24">
-        <v>0.002309830378509221</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="J24">
-        <v>0.002309830378509222</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6888489999999999</v>
+        <v>1.342789333333333</v>
       </c>
       <c r="N24">
-        <v>2.066547</v>
+        <v>4.028368</v>
       </c>
       <c r="O24">
-        <v>0.06880368184049941</v>
+        <v>0.1166460344434582</v>
       </c>
       <c r="P24">
-        <v>0.06880368184049941</v>
+        <v>0.1166460344434581</v>
       </c>
       <c r="Q24">
-        <v>0.085928401958</v>
+        <v>0.2146408465653333</v>
       </c>
       <c r="R24">
-        <v>0.773355617622</v>
+        <v>1.931767619088</v>
       </c>
       <c r="S24">
-        <v>0.0001589248344684688</v>
+        <v>0.0002914199441149376</v>
       </c>
       <c r="T24">
-        <v>0.0001589248344684688</v>
+        <v>0.0002914199441149376</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.124742</v>
+        <v>0.159847</v>
       </c>
       <c r="H25">
-        <v>0.374226</v>
+        <v>0.479541</v>
       </c>
       <c r="I25">
-        <v>0.002309830378509221</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="J25">
-        <v>0.002309830378509222</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.330650666666667</v>
+        <v>2.987003</v>
       </c>
       <c r="N25">
-        <v>6.991952</v>
+        <v>8.961009000000001</v>
       </c>
       <c r="O25">
-        <v>0.2327902732684249</v>
+        <v>0.2594763349480828</v>
       </c>
       <c r="P25">
-        <v>0.2327902732684248</v>
+        <v>0.2594763349480828</v>
       </c>
       <c r="Q25">
-        <v>0.2907300254613334</v>
+        <v>0.477463468541</v>
       </c>
       <c r="R25">
-        <v>2.616570229152</v>
+        <v>4.297171216869001</v>
       </c>
       <c r="S25">
-        <v>0.0005377060450168709</v>
+        <v>0.0006482567486370294</v>
       </c>
       <c r="T25">
-        <v>0.000537706045016871</v>
+        <v>0.0006482567486370294</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.124742</v>
+        <v>0.159847</v>
       </c>
       <c r="H26">
-        <v>0.374226</v>
+        <v>0.479541</v>
       </c>
       <c r="I26">
-        <v>0.002309830378509221</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="J26">
-        <v>0.002309830378509222</v>
+        <v>0.002498327058483909</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.8792456666666667</v>
+        <v>0.9967483333333332</v>
       </c>
       <c r="N26">
-        <v>2.637737</v>
+        <v>2.990245</v>
       </c>
       <c r="O26">
-        <v>0.08782089994900355</v>
+        <v>0.08658598749279571</v>
       </c>
       <c r="P26">
-        <v>0.08782089994900352</v>
+        <v>0.08658598749279571</v>
       </c>
       <c r="Q26">
-        <v>0.1096788629513333</v>
+        <v>0.1593272308383333</v>
       </c>
       <c r="R26">
-        <v>0.987109766562</v>
+        <v>1.433945077545</v>
       </c>
       <c r="S26">
-        <v>0.0002028513825702273</v>
+        <v>0.0002163201154388009</v>
       </c>
       <c r="T26">
-        <v>0.0002028513825702273</v>
+        <v>0.0002163201154388009</v>
       </c>
     </row>
   </sheetData>
